--- a/dhi_model.xlsx
+++ b/dhi_model.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,6 +657,38 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.4994, 'precision_macro': 0.4902, 'recall_macro': 0.4994, 'f1_macro': 0.4535}</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>{'priors': None, 'var_smoothing': 1e-09}</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10/14/2024 14:09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dhi_model.xlsx
+++ b/dhi_model.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,6 +689,38 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.4977, 'precision_macro': 0.4873, 'recall_macro': 0.4977, 'f1_macro': 0.4528}</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>{'priors': None, 'var_smoothing': 1e-09}</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10/15/2024 10:46</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dhi_model.xlsx
+++ b/dhi_model.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,6 +721,870 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.498, 'precision_macro': 0.4882, 'recall_macro': 0.498, 'f1_macro': 0.453}</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>{'priors': None, 'var_smoothing': 1e-09}</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10/16/2024 11:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>LogisticRegression_searchCV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.5195253128551722, 'precision_macro': 0.5087345425877574, 'recall_macro': 0.5195333795333795, 'f1_macro': 0.5080506234286243}</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>{'params': {'model__C': 0.01, 'model__max_iter': 3000, 'model__solver': 'saga'}}</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10/16/2024 12:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>LogisticRegression_searchCV</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.5196153218560723, 'precision_macro': 0.5088430995524843, 'recall_macro': 0.5196233480444007, 'f1_macro': 0.5081558773367673}</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{'params': {'model__C': 0.01, 'model__max_iter': 3000, 'model__solver': 'newton-cg'}}</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10/16/2024 12:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>LogisticRegression_searchCV</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.5195253128551722, 'precision_macro': 0.5087345425877574, 'recall_macro': 0.5195333795333795, 'f1_macro': 0.5080506234286243}</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{'params': {'model__C': 0.01, 'model__max_iter': 4000, 'model__solver': 'saga'}}</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10/16/2024 12:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>LogisticRegression_searchCV</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.5196153218560723, 'precision_macro': 0.5088430995524843, 'recall_macro': 0.5196233480444007, 'f1_macro': 0.5081558773367673}</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{'params': {'model__C': 0.01, 'model__max_iter': 4000, 'model__solver': 'newton-cg'}}</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10/16/2024 12:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>LogisticRegression_searchCV</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.518175825679734, 'precision_macro': 0.5083874554736929, 'recall_macro': 0.5181844597634072, 'f1_macro': 0.5085590728489324}</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{'params': {'model__C': 0.1, 'model__max_iter': 3000, 'model__solver': 'saga'}}</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10/16/2024 12:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>LogisticRegression_searchCV</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.5181757446999761, 'precision_macro': 0.5083367697124437, 'recall_macro': 0.5181843381843382, 'f1_macro': 0.508539832266391}</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>{'params': {'model__C': 0.1, 'model__max_iter': 3000, 'model__solver': 'newton-cg'}}</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10/16/2024 12:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>LogisticRegression_searchCV</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.518175825679734, 'precision_macro': 0.5083874554736929, 'recall_macro': 0.5181844597634072, 'f1_macro': 0.5085590728489324}</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>{'params': {'model__C': 0.1, 'model__max_iter': 4000, 'model__solver': 'saga'}}</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10/16/2024 12:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>LogisticRegression_searchCV</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.5181757446999761, 'precision_macro': 0.5083367697124437, 'recall_macro': 0.5181843381843382, 'f1_macro': 0.508539832266391}</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>{'params': {'model__C': 0.1, 'model__max_iter': 4000, 'model__solver': 'newton-cg'}}</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10/16/2024 12:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.5125972921178757, 'precision_macro': 0.507168890881737, 'recall_macro': 0.5126045883940621, 'f1_macro': 0.507646827721938}</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 0.1, 'model__min_samples_split': 2, 'model__n_estimators': 200}}</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.5089982277579985, 'precision_macro': 0.5048330915750404, 'recall_macro': 0.5090051184788027, 'f1_macro': 0.5049417280156191}</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 0.1, 'model__min_samples_split': 2, 'model__n_estimators': 400}}</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.5123272246252967, 'precision_macro': 0.5068679323407523, 'recall_macro': 0.5123343181237919, 'f1_macro': 0.507276995547214}</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 0.1, 'model__min_samples_split': 4, 'model__n_estimators': 200}}</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.5071987765578176, 'precision_macro': 0.5030450982373922, 'recall_macro': 0.5072058698374488, 'f1_macro': 0.5033665220116356}</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 0.1, 'model__min_samples_split': 4, 'model__n_estimators': 400}}</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.5140367478043351, 'precision_macro': 0.5085594998799003, 'recall_macro': 0.5140444493076073, 'f1_macro': 0.5090540459355952}</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 0.1, 'model__min_samples_split': 6, 'model__n_estimators': 200}}</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.5083682862213347, 'precision_macro': 0.5044202460863813, 'recall_macro': 0.5083754604807236, 'f1_macro': 0.5045887292458585}</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 0.1, 'model__min_samples_split': 6, 'model__n_estimators': 400}}</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.4716576920849979, 'precision_macro': 0.4704792408132114, 'recall_macro': 0.47166137797716745, 'f1_macro': 0.47068524250649435}</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 1, 'model__min_samples_split': 2, 'model__n_estimators': 200}}</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.4649096488596228, 'precision_macro': 0.4638431327291809, 'recall_macro': 0.4649122807017544, 'f1_macro': 0.4642323636954714}</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 1, 'model__min_samples_split': 2, 'model__n_estimators': 400}}</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.4703078405006492, 'precision_macro': 0.46908361502221557, 'recall_macro': 0.470310269783954, 'f1_macro': 0.46947013951697103}</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 1, 'model__min_samples_split': 4, 'model__n_estimators': 200}}</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.4658989380719448, 'precision_macro': 0.4646126176831921, 'recall_macro': 0.46590144800671124, 'f1_macro': 0.46509038225763577}</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 1, 'model__min_samples_split': 4, 'model__n_estimators': 400}}</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.47138815096084513, 'precision_macro': 0.46946677503887796, 'recall_macro': 0.4713906213906213, 'f1_macro': 0.47012811766941887}</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 1, 'model__min_samples_split': 6, 'model__n_estimators': 200}}</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.463020917476363, 'precision_macro': 0.4617564832977757, 'recall_macro': 0.4630226988121725, 'f1_macro': 0.46215785041996094}</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 1, 'model__min_samples_split': 6, 'model__n_estimators': 400}}</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.506478664060738, 'precision_macro': 0.49476329152174026, 'recall_macro': 0.5064909849120375, 'f1_macro': 0.4904432313892162}</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 0.01, 'model__min_samples_split': 2, 'model__n_estimators': 200}}</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.5132275170836922, 'precision_macro': 0.5043357440302025, 'recall_macro': 0.5132370427107269, 'f1_macro': 0.5037393928621143}</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 0.01, 'model__min_samples_split': 2, 'model__n_estimators': 400}}</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.506478664060738, 'precision_macro': 0.49476329152174026, 'recall_macro': 0.5064909849120375, 'f1_macro': 0.4904432313892162}</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 0.01, 'model__min_samples_split': 4, 'model__n_estimators': 200}}</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.5135873506378978, 'precision_macro': 0.5046952863296218, 'recall_macro': 0.5135969167548116, 'f1_macro': 0.5040811805173063}</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 0.01, 'model__min_samples_split': 4, 'model__n_estimators': 400}}</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.506478664060738, 'precision_macro': 0.49476329152174026, 'recall_macro': 0.5064909849120375, 'f1_macro': 0.4904432313892162}</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 0.01, 'model__min_samples_split': 6, 'model__n_estimators': 200}}</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier_searchCV</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.5134074136158555, 'precision_macro': 0.5045261965181871, 'recall_macro': 0.5134169797327692, 'f1_macro': 0.503971121862779}</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>{'params': {'model__learning_rate': 0.01, 'model__min_samples_split': 6, 'model__n_estimators': 400}}</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10/16/2024 13:08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
